--- a/총기 변수 값.xlsx
+++ b/총기 변수 값.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjj12\Desktop\Study\Zombie_Surviver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01224C4E-447D-40B0-931C-8B5A03604B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B39272-DA23-496E-8052-07A26B8E8AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
   <si>
-    <t>0.24f</t>
-  </si>
-  <si>
     <t>lastFireTime</t>
   </si>
   <si>
@@ -79,109 +76,116 @@
     <t>발사 준비됨</t>
   </si>
   <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>사정거리</t>
+  </si>
+  <si>
+    <t>Reload</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>값</t>
+  </si>
+  <si>
+    <t>변수</t>
+  </si>
+  <si>
+    <t>함수</t>
+  </si>
+  <si>
+    <t>50f</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>공격력</t>
+  </si>
+  <si>
+    <t>SniperData</t>
+  </si>
+  <si>
+    <t>Reloading</t>
+  </si>
+  <si>
+    <t>ShotEffect</t>
+  </si>
+  <si>
+    <t>magCapacity</t>
+  </si>
+  <si>
+    <t>OnEnable</t>
+  </si>
+  <si>
+    <t>실제 재장전 처리</t>
+  </si>
+  <si>
+    <t>실제 발사 처리</t>
+  </si>
+  <si>
+    <t>reloadTime</t>
+  </si>
+  <si>
+    <t>총알 발사 간격</t>
+  </si>
+  <si>
+    <t>총 상태 초기화</t>
+  </si>
+  <si>
+    <t>재장전 소요 시간</t>
+  </si>
+  <si>
+    <t>PistolData</t>
+  </si>
+  <si>
+    <t>timeBetFire</t>
+  </si>
+  <si>
+    <t>RifleData</t>
+  </si>
+  <si>
+    <t>발사 이펙트, 소리, 탄알 궤적</t>
+  </si>
+  <si>
+    <t>현재 탄알집에 남아 있는 탄알</t>
+  </si>
+  <si>
+    <t>사용할 컴포넌트의 참조 가져오기</t>
+  </si>
+  <si>
+    <t>1.2f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2.7f</t>
-  </si>
-  <si>
-    <t>Rifle</t>
-  </si>
-  <si>
-    <t>Sniper</t>
-  </si>
-  <si>
-    <t>1.8f</t>
-  </si>
-  <si>
-    <t>Shot</t>
-  </si>
-  <si>
-    <t>사정거리</t>
-  </si>
-  <si>
-    <t>0.36f</t>
-  </si>
-  <si>
-    <t>Reload</t>
-  </si>
-  <si>
-    <t>Pistol</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>값</t>
-  </si>
-  <si>
-    <t>변수</t>
-  </si>
-  <si>
-    <t>함수</t>
-  </si>
-  <si>
-    <t>50f</t>
-  </si>
-  <si>
-    <t>설명</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>공격력</t>
-  </si>
-  <si>
-    <t>SniperData</t>
-  </si>
-  <si>
-    <t>Reloading</t>
-  </si>
-  <si>
-    <t>ShotEffect</t>
-  </si>
-  <si>
-    <t>magCapacity</t>
-  </si>
-  <si>
-    <t>OnEnable</t>
-  </si>
-  <si>
-    <t>실제 재장전 처리</t>
-  </si>
-  <si>
-    <t>실제 발사 처리</t>
-  </si>
-  <si>
-    <t>reloadTime</t>
-  </si>
-  <si>
-    <t>총알 발사 간격</t>
-  </si>
-  <si>
-    <t>총 상태 초기화</t>
-  </si>
-  <si>
-    <t>재장전 소요 시간</t>
-  </si>
-  <si>
-    <t>PistolData</t>
-  </si>
-  <si>
-    <t>timeBetFire</t>
-  </si>
-  <si>
-    <t>RifleData</t>
-  </si>
-  <si>
-    <t>발사 이펙트, 소리, 탄알 궤적</t>
-  </si>
-  <si>
-    <t>현재 탄알집에 남아 있는 탄알</t>
-  </si>
-  <si>
-    <t>사용할 컴포넌트의 참조 가져오기</t>
-  </si>
-  <si>
-    <t>1.2f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1f</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -678,28 +682,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -708,12 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -726,91 +802,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -996,7 +1000,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1005,7 +1009,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1321,8 +1325,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1338,18 +1342,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1361,59 +1365,59 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="26"/>
+      <c r="A3" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="50"/>
       <c r="D3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1422,15 +1426,15 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="22"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="48"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1438,16 +1442,16 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>4</v>
+      <c r="A8" s="30"/>
+      <c r="B8" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1456,19 +1460,19 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="47"/>
+      <c r="A9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="32"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1476,17 +1480,17 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="49"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="34"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1494,17 +1498,17 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="49"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="34"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1512,17 +1516,17 @@
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="49"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="34"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1530,17 +1534,17 @@
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="49"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="34"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1548,17 +1552,17 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="49"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="34"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1566,17 +1570,17 @@
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="14"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="36"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1594,7 +1598,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1606,15 +1610,15 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="24"/>
+      <c r="B18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="17"/>
       <c r="D18" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1623,15 +1627,15 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="16"/>
+      <c r="B19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="19"/>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1640,18 +1644,18 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="18"/>
+      <c r="B20" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="21"/>
       <c r="D20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1660,15 +1664,15 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="20"/>
+      <c r="B21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="23"/>
       <c r="D21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>53</v>
+        <v>42</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1700,517 +1704,522 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="11" t="s">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="48"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+      <c r="B30" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="C31" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+      <c r="B32" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="30"/>
+      <c r="B33" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="31"/>
-      <c r="B28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="31"/>
-      <c r="B30" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="47"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="31"/>
-      <c r="B32" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="49"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="49"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
-      <c r="B34" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="49"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="31"/>
-      <c r="B35" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="49"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
-      <c r="B36" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="49"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
-      <c r="B37" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="14"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="24"/>
+      <c r="B40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="17"/>
       <c r="D40" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="5">
+      <c r="C41" s="19"/>
+      <c r="D41" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="15" t="s">
+      <c r="E41" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="21"/>
+      <c r="D42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="30"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="25" t="s">
+      <c r="E49" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="31"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="11" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="30"/>
+      <c r="B50" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="C50" s="21"/>
+      <c r="D50" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="48"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="30"/>
+      <c r="B51" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="31"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="C52" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="30"/>
+      <c r="B53" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="30"/>
+      <c r="B55" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="30"/>
+      <c r="B56" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="34"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="30"/>
+      <c r="B57" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="34"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="31"/>
-      <c r="B49" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E49" s="51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="31"/>
-      <c r="B50" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="47"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="49"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="49"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="49"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
-      <c r="B56" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="49"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="49"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
-      <c r="B58" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" s="14"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61" s="24"/>
+      <c r="B61" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="17"/>
       <c r="D61" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="15" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="21"/>
+      <c r="D63" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B46:C48"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B25:C27"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
@@ -2222,43 +2231,36 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B25:C27"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B46:C48"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
